--- a/Plastics_Database.xlsx
+++ b/Plastics_Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B4A918-105F-4402-9DA3-EE60ADA53A96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FAB442-EDF9-45E1-BB3B-D6F6AD360BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
   <si>
     <t>1.63a</t>
   </si>
@@ -136,6 +136,186 @@
   </si>
   <si>
     <t>Box 96</t>
+  </si>
+  <si>
+    <t>Mettler Toledo</t>
+  </si>
+  <si>
+    <t>S1122-1730</t>
+  </si>
+  <si>
+    <t>S1123-1710</t>
+  </si>
+  <si>
+    <t>S1121-2710</t>
+  </si>
+  <si>
+    <t>70.3050.255</t>
+  </si>
+  <si>
+    <t>70.3060.255</t>
+  </si>
+  <si>
+    <t>70.3031.355</t>
+  </si>
+  <si>
+    <t>70.3030.365</t>
+  </si>
+  <si>
+    <t>70.3020.355</t>
+  </si>
+  <si>
+    <t>70.3010.355</t>
+  </si>
+  <si>
+    <t>1000 ul</t>
+  </si>
+  <si>
+    <t>20 ul corti</t>
+  </si>
+  <si>
+    <t>10 ul corti</t>
+  </si>
+  <si>
+    <t>1000µl</t>
+  </si>
+  <si>
+    <t>1000µl XL</t>
+  </si>
+  <si>
+    <t>200µl</t>
+  </si>
+  <si>
+    <t>20µl corti</t>
+  </si>
+  <si>
+    <t>10/20µl XL</t>
+  </si>
+  <si>
+    <t>10µl corti</t>
+  </si>
+  <si>
+    <t>20 µl</t>
+  </si>
+  <si>
+    <t>200 µl</t>
+  </si>
+  <si>
+    <t>1000 µl</t>
+  </si>
+  <si>
+    <t>Eppendorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eppendorf </t>
+  </si>
+  <si>
+    <t>62.554.502</t>
+  </si>
+  <si>
+    <t>72.737</t>
+  </si>
+  <si>
+    <t>72.991.002</t>
+  </si>
+  <si>
+    <t>S1615-5500</t>
+  </si>
+  <si>
+    <t>0030108418</t>
+  </si>
+  <si>
+    <t>022431021</t>
+  </si>
+  <si>
+    <t>0030108078</t>
+  </si>
+  <si>
+    <t>72.706.600</t>
+  </si>
+  <si>
+    <t>0030108302</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>15ml</t>
+  </si>
+  <si>
+    <t>0,2ml</t>
+  </si>
+  <si>
+    <t>1.5ml</t>
+  </si>
+  <si>
+    <t>1,5ml</t>
+  </si>
+  <si>
+    <t>2ml</t>
+  </si>
+  <si>
+    <t>5 ml</t>
+  </si>
+  <si>
+    <t>Parafilm</t>
+  </si>
+  <si>
+    <t>Artiglass</t>
+  </si>
+  <si>
+    <t>Carta Bancone</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>Carta Assorbente</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>Scotch da pacchi</t>
+  </si>
+  <si>
+    <t>Scotch autoclave piccoli</t>
+  </si>
+  <si>
+    <t>Scotch autoclave grandi</t>
+  </si>
+  <si>
+    <t>Scotch di carta</t>
+  </si>
+  <si>
+    <t>varie</t>
+  </si>
+  <si>
+    <t>95.064.922</t>
+  </si>
+  <si>
+    <t>95.064.924</t>
+  </si>
+  <si>
+    <t>0,2mL</t>
+  </si>
+  <si>
+    <t>VWR</t>
+  </si>
+  <si>
+    <t>732-0544</t>
+  </si>
+  <si>
+    <t>72.1978</t>
   </si>
 </sst>
 </file>
@@ -171,8 +351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -507,19 +690,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
@@ -551,16 +735,811 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>112</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>260</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>300</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1">
+        <v>260</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30389189</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30389186</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30389165</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1">
+        <v>72695600</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="1">
+        <v>29</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>17008604</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30389187</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -568,13 +1547,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73313D1D-F9B9-4798-981A-E2B9536547AD}">
-          <x14:formula1>
-            <xm:f>'Training Lists'!$A$2:$A$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F1ECD0F-8FBE-4280-9E18-368C5940EB34}">
           <x14:formula1>
             <xm:f>'Training Lists'!$C$2:$C$6</xm:f>
@@ -599,6 +1572,18 @@
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73313D1D-F9B9-4798-981A-E2B9536547AD}">
+          <x14:formula1>
+            <xm:f>'Training Lists'!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D25:D30 D35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{392F06E8-8CB6-4429-A8E6-DD036FEA1369}">
+          <x14:formula1>
+            <xm:f>'Training Lists'!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -607,15 +1592,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA5670-41BD-4816-8DF5-A7C6DF91BCB5}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -711,31 +1696,88 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12" xr:uid="{D74F3E58-F30C-401E-9370-B218DCF1E92A}">
+      <formula1>$A$2:$A$10</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plastics_Database.xlsx
+++ b/Plastics_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FAB442-EDF9-45E1-BB3B-D6F6AD360BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4D99C-732E-46ED-B17C-6F6DA9A4481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>1.63a</t>
   </si>
@@ -168,42 +168,6 @@
     <t>70.3010.355</t>
   </si>
   <si>
-    <t>1000 ul</t>
-  </si>
-  <si>
-    <t>20 ul corti</t>
-  </si>
-  <si>
-    <t>10 ul corti</t>
-  </si>
-  <si>
-    <t>1000µl</t>
-  </si>
-  <si>
-    <t>1000µl XL</t>
-  </si>
-  <si>
-    <t>200µl</t>
-  </si>
-  <si>
-    <t>20µl corti</t>
-  </si>
-  <si>
-    <t>10/20µl XL</t>
-  </si>
-  <si>
-    <t>10µl corti</t>
-  </si>
-  <si>
-    <t>20 µl</t>
-  </si>
-  <si>
-    <t>200 µl</t>
-  </si>
-  <si>
-    <t>1000 µl</t>
-  </si>
-  <si>
     <t>Eppendorf</t>
   </si>
   <si>
@@ -237,27 +201,12 @@
     <t>0030108302</t>
   </si>
   <si>
-    <t>50 ml</t>
-  </si>
-  <si>
-    <t>15ml</t>
-  </si>
-  <si>
-    <t>0,2ml</t>
-  </si>
-  <si>
-    <t>1.5ml</t>
-  </si>
-  <si>
     <t>1,5ml</t>
   </si>
   <si>
     <t>2ml</t>
   </si>
   <si>
-    <t>5 ml</t>
-  </si>
-  <si>
     <t>Parafilm</t>
   </si>
   <si>
@@ -316,6 +265,12 @@
   </si>
   <si>
     <t>72.1978</t>
+  </si>
+  <si>
+    <t>1000 ul XL</t>
+  </si>
+  <si>
+    <t>10/20 ul XL</t>
   </si>
 </sst>
 </file>
@@ -692,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -759,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -782,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
@@ -805,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -828,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -851,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -874,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -897,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -920,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -943,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>30389189</v>
@@ -966,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>30389186</v>
@@ -989,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>30389165</v>
@@ -1012,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -1029,10 +984,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1049,10 +1004,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1069,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1089,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -1109,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>9</v>
@@ -1129,13 +1084,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>9</v>
@@ -1149,13 +1104,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -1169,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1189,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>72695600</v>
@@ -1209,13 +1164,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1229,10 +1184,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1">
         <v>8</v>
@@ -1246,10 +1201,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
@@ -1263,10 +1218,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1">
         <v>34</v>
@@ -1280,10 +1235,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1">
         <v>11</v>
@@ -1294,7 +1249,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1305,10 +1260,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1">
         <v>6</v>
@@ -1319,7 +1274,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -1330,7 +1285,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -1341,7 +1296,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -1352,7 +1307,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1">
         <v>17</v>
@@ -1363,10 +1318,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -1383,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -1403,7 +1358,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1">
         <v>29</v>
@@ -1417,10 +1372,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -1440,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
@@ -1500,10 +1455,10 @@
         <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1531,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -1592,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA5670-41BD-4816-8DF5-A7C6DF91BCB5}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1652,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1705,7 +1660,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1713,7 +1668,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1721,7 +1676,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1729,7 +1684,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1737,45 +1692,58 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12" xr:uid="{D74F3E58-F30C-401E-9370-B218DCF1E92A}">
       <formula1>$A$2:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{35855B1A-91D2-4CB9-9444-F4C6F254F837}">
+      <formula1>$B$2:$B$1048576</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plastics_Database.xlsx
+++ b/Plastics_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4D99C-732E-46ED-B17C-6F6DA9A4481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B4379-62DB-4A42-BA97-9545CF04A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
   <si>
     <t>1.63a</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>10/20 ul XL</t>
+  </si>
+  <si>
+    <t>200ul Low Retention</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1">
         <v>30389187</v>
@@ -1547,16 +1550,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA5670-41BD-4816-8DF5-A7C6DF91BCB5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
@@ -1735,6 +1738,11 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Plastics_Database.xlsx
+++ b/Plastics_Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B4379-62DB-4A42-BA97-9545CF04A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D36E7E-6476-40D1-A7E9-64D3ACA583B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
   <si>
     <t>1.63a</t>
   </si>
@@ -144,9 +144,6 @@
     <t>S1122-1730</t>
   </si>
   <si>
-    <t>S1123-1710</t>
-  </si>
-  <si>
     <t>S1121-2710</t>
   </si>
   <si>
@@ -258,12 +255,6 @@
     <t>0,2mL</t>
   </si>
   <si>
-    <t>VWR</t>
-  </si>
-  <si>
-    <t>732-0544</t>
-  </si>
-  <si>
     <t>72.1978</t>
   </si>
   <si>
@@ -274,6 +265,9 @@
   </si>
   <si>
     <t>200ul Low Retention</t>
+  </si>
+  <si>
+    <t>E1011-8420</t>
   </si>
 </sst>
 </file>
@@ -648,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -717,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -729,7 +723,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <f>E3*10</f>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -740,19 +735,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <f>E4*4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -763,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -772,10 +768,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>112</v>
+        <f>E5*4</f>
+        <v>156</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -786,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -795,10 +792,11 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <f>E6*5</f>
+        <v>500</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -809,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -818,10 +816,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
-        <v>260</v>
+        <f>E7*5</f>
+        <v>190</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -832,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
@@ -841,10 +840,11 @@
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <f t="shared" ref="F8:F9" si="0">E8*5</f>
+        <v>275</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -864,10 +864,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <v>260</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -878,19 +879,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30389189</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>80</v>
+        <f>10*E10</f>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
@@ -901,19 +903,20 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>30389189</v>
+        <v>30389186</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
+        <f>10*E11</f>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -924,19 +927,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>30389186</v>
+        <v>30389165</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -944,22 +947,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>30389165</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -970,13 +967,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1027,16 +1027,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1053,10 +1053,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1067,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>49</v>
@@ -1076,7 +1076,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1087,16 +1087,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1107,16 +1107,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1127,16 +1127,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>72695600</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1147,16 +1147,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1">
-        <v>72695600</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1164,16 +1164,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1190,10 +1187,10 @@
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -1207,10 +1204,10 @@
         <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -1224,10 +1221,10 @@
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -1235,27 +1232,24 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -1263,16 +1257,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,7 +1271,7 @@
         <v>65</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1302,7 +1293,7 @@
         <v>67</v>
       </c>
       <c r="E33" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1310,27 +1301,36 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E34" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,16 +1338,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1358,13 +1355,16 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1375,16 +1375,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1392,16 +1389,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17008604</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1412,16 +1412,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1">
-        <v>17008604</v>
+        <v>30389187</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1432,19 +1435,16 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1">
-        <v>30389187</v>
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1455,16 +1455,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1472,32 +1466,21 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="1">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1506,6 +1489,12 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73313D1D-F9B9-4798-981A-E2B9536547AD}">
+          <x14:formula1>
+            <xm:f>'Training Lists'!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D24:D29 D34</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F1ECD0F-8FBE-4280-9E18-368C5940EB34}">
           <x14:formula1>
             <xm:f>'Training Lists'!$C$2:$C$6</xm:f>
@@ -1529,12 +1518,6 @@
             <xm:f>'Training Lists'!$B$2:$B$1048576</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73313D1D-F9B9-4798-981A-E2B9536547AD}">
-          <x14:formula1>
-            <xm:f>'Training Lists'!$A$2:$A$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D25:D30 D35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{392F06E8-8CB6-4429-A8E6-DD036FEA1369}">
           <x14:formula1>
@@ -1655,7 +1638,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1663,7 +1646,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1671,7 +1654,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1679,7 +1662,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1687,7 +1670,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1695,54 +1678,54 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
